--- a/report_zone/Report_zone4.xlsx
+++ b/report_zone/Report_zone4.xlsx
@@ -2421,7 +2421,7 @@
       </c>
       <c r="HF2" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -3329,7 +3329,7 @@
       </c>
       <c r="HF3" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4241,7 @@
       </c>
       <c r="HF4" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
       </c>
       <c r="HF5" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="HF6" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
       </c>
       <c r="HF7" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -7873,7 +7873,7 @@
       </c>
       <c r="HF8" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="HF9" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="HF10" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="HF11" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="HF12" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="HF13" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="HF14" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="HF15" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="HF16" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="HF17" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="HF18" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -17905,7 +17905,7 @@
       </c>
       <c r="HF19" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="HF20" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -19725,7 +19725,7 @@
       </c>
       <c r="HF21" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="HF22" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -21541,7 +21541,7 @@
       </c>
       <c r="HF23" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -22449,7 +22449,7 @@
       </c>
       <c r="HF24" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="HF25" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -24273,7 +24273,7 @@
       </c>
       <c r="HF26" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -25181,7 +25181,7 @@
       </c>
       <c r="HF27" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -26089,7 +26089,7 @@
       </c>
       <c r="HF28" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -27001,7 +27001,7 @@
       </c>
       <c r="HF29" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -27905,7 +27905,7 @@
       </c>
       <c r="HF30" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -28813,7 +28813,7 @@
       </c>
       <c r="HF31" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -29721,7 +29721,7 @@
       </c>
       <c r="HF32" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -30629,7 +30629,7 @@
       </c>
       <c r="HF33" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -31537,7 +31537,7 @@
       </c>
       <c r="HF34" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -32445,7 +32445,7 @@
       </c>
       <c r="HF35" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -33353,7 +33353,7 @@
       </c>
       <c r="HF36" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -34261,7 +34261,7 @@
       </c>
       <c r="HF37" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -35169,7 +35169,7 @@
       </c>
       <c r="HF38" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -36077,7 +36077,7 @@
       </c>
       <c r="HF39" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -36985,7 +36985,7 @@
       </c>
       <c r="HF40" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -37897,7 +37897,7 @@
       </c>
       <c r="HF41" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -38805,7 +38805,7 @@
       </c>
       <c r="HF42" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -39709,7 +39709,7 @@
       </c>
       <c r="HF43" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -40617,7 +40617,7 @@
       </c>
       <c r="HF44" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -41525,7 +41525,7 @@
       </c>
       <c r="HF45" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -42433,7 +42433,7 @@
       </c>
       <c r="HF46" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -43341,7 +43341,7 @@
       </c>
       <c r="HF47" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -44249,7 +44249,7 @@
       </c>
       <c r="HF48" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -45165,7 +45165,7 @@
       </c>
       <c r="HF49" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -46085,7 +46085,7 @@
       </c>
       <c r="HF50" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -46993,7 +46993,7 @@
       </c>
       <c r="HF51" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -47901,7 +47901,7 @@
       </c>
       <c r="HF52" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -48821,7 +48821,7 @@
       </c>
       <c r="HF53" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -49729,7 +49729,7 @@
       </c>
       <c r="HF54" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -50637,7 +50637,7 @@
       </c>
       <c r="HF55" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -51545,7 +51545,7 @@
       </c>
       <c r="HF56" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -52461,7 +52461,7 @@
       </c>
       <c r="HF57" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -53369,7 +53369,7 @@
       </c>
       <c r="HF58" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -54281,7 +54281,7 @@
       </c>
       <c r="HF59" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -55193,7 +55193,7 @@
       </c>
       <c r="HF60" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -56101,7 +56101,7 @@
       </c>
       <c r="HF61" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -57009,7 +57009,7 @@
       </c>
       <c r="HF62" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -57917,7 +57917,7 @@
       </c>
       <c r="HF63" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -58825,7 +58825,7 @@
       </c>
       <c r="HF64" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -59733,7 +59733,7 @@
       </c>
       <c r="HF65" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -60641,7 +60641,7 @@
       </c>
       <c r="HF66" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -61553,7 +61553,7 @@
       </c>
       <c r="HF67" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -62461,7 +62461,7 @@
       </c>
       <c r="HF68" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -63369,7 +63369,7 @@
       </c>
       <c r="HF69" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -64277,7 +64277,7 @@
       </c>
       <c r="HF70" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -65185,7 +65185,7 @@
       </c>
       <c r="HF71" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -66093,7 +66093,7 @@
       </c>
       <c r="HF72" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
@@ -67001,7 +67001,7 @@
       </c>
       <c r="HF73" t="inlineStr">
         <is>
-          <t>2025-05-19 05:42:05</t>
+          <t>2025-05-19 19:42:10</t>
         </is>
       </c>
     </row>
